--- a/data/trans_orig/IQ21C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IQ21C-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1AF21B7-5E71-4863-A577-B4F35CD216E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6434F10F-6E21-4CCF-BA16-50AAFBE5FD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E21ED22A-C851-425D-82C2-52F86443AF1A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E192E38F-908A-493E-9627-5831C8A4C60B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="244">
   <si>
     <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2007 (Tasa respuesta: 0,48%)</t>
   </si>
@@ -113,7 +113,7 @@
     <t>12,93%</t>
   </si>
   <si>
-    <t>51,8%</t>
+    <t>58,21%</t>
   </si>
   <si>
     <t>26,58%</t>
@@ -131,7 +131,7 @@
     <t>27,66%</t>
   </si>
   <si>
-    <t>67,31%</t>
+    <t>66,47%</t>
   </si>
   <si>
     <t>26,3%</t>
@@ -143,7 +143,7 @@
     <t>13,82%</t>
   </si>
   <si>
-    <t>54,42%</t>
+    <t>53,92%</t>
   </si>
   <si>
     <t>22,5%</t>
@@ -152,7 +152,7 @@
     <t>11,82%</t>
   </si>
   <si>
-    <t>58,37%</t>
+    <t>57,61%</t>
   </si>
   <si>
     <t>47,8%</t>
@@ -161,16 +161,19 @@
     <t>22,69%</t>
   </si>
   <si>
-    <t>69,9%</t>
+    <t>61,72%</t>
   </si>
   <si>
     <t>23,34%</t>
   </si>
   <si>
+    <t>79,56%</t>
+  </si>
+  <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>47,7%</t>
+    <t>47,96%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -185,76 +188,76 @@
     <t>16,53%</t>
   </si>
   <si>
-    <t>66,6%</t>
+    <t>70,28%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>42,94%</t>
+    <t>45,55%</t>
   </si>
   <si>
     <t>33,48%</t>
   </si>
   <si>
-    <t>83,54%</t>
+    <t>83,6%</t>
   </si>
   <si>
     <t>31,73%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>67,81%</t>
+    <t>67,77%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>52,79%</t>
+    <t>48,6%</t>
   </si>
   <si>
     <t>15,11%</t>
   </si>
   <si>
-    <t>64,01%</t>
+    <t>63,4%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>39,26%</t>
+    <t>40,52%</t>
   </si>
   <si>
     <t>18,06%</t>
   </si>
   <si>
-    <t>56,33%</t>
+    <t>56,75%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>69,49%</t>
+    <t>68,17%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>45,42%</t>
+    <t>51,88%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>41,94%</t>
+    <t>38,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -278,444 +281,453 @@
     <t>18,2%</t>
   </si>
   <si>
-    <t>77,8%</t>
+    <t>78,78%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>41,41%</t>
+    <t>48,8%</t>
   </si>
   <si>
     <t>41,67%</t>
   </si>
   <si>
-    <t>82,07%</t>
+    <t>82,44%</t>
   </si>
   <si>
     <t>22,48%</t>
   </si>
   <si>
-    <t>57,09%</t>
+    <t>56,67%</t>
   </si>
   <si>
     <t>19,61%</t>
   </si>
   <si>
-    <t>81,17%</t>
+    <t>79,48%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>52,54%</t>
+    <t>44,25%</t>
   </si>
   <si>
     <t>20,52%</t>
   </si>
   <si>
-    <t>79,65%</t>
+    <t>80,71%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
+    <t>74,69%</t>
+  </si>
+  <si>
     <t>21,99%</t>
   </si>
   <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
     <t>55,55%</t>
   </si>
   <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
     <t>17,71%</t>
   </si>
   <si>
-    <t>73,66%</t>
+    <t>79,74%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>40,32%</t>
+    <t>40,13%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>80,75%</t>
+    <t>80,6%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2016 (Tasa respuesta: 0,61%)</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2023 (Tasa respuesta: 0,26%)</t>
+  </si>
+  <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2015 (Tasa respuesta: 0,61%)</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2023 (Tasa respuesta: 0,26%)</t>
-  </si>
-  <si>
     <t>41,76%</t>
   </si>
   <si>
@@ -734,7 +746,7 @@
     <t>15,21%</t>
   </si>
   <si>
-    <t>74,0%</t>
+    <t>73,96%</t>
   </si>
   <si>
     <t>53,74%</t>
@@ -746,7 +758,7 @@
     <t>44,08%</t>
   </si>
   <si>
-    <t>85,48%</t>
+    <t>85,62%</t>
   </si>
   <si>
     <t>46,26%</t>
@@ -758,7 +770,7 @@
     <t>40,71%</t>
   </si>
   <si>
-    <t>84,26%</t>
+    <t>84,32%</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A269E13-7060-479C-8311-8587636AB7EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0589D0D4-9408-4FD2-93B7-79D83FA990E4}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2464,7 +2476,7 @@
         <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -2473,13 +2485,13 @@
         <v>576</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,7 +2598,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5">
         <v>36</v>
@@ -3191,7 +3203,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3221,7 +3233,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,7 +3254,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3272,7 +3284,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3305,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3323,7 +3335,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3350,13 @@
         <v>673</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3368,13 +3380,13 @@
         <v>673</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,7 +3407,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3425,7 +3437,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3452,13 @@
         <v>1362</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -3470,13 +3482,13 @@
         <v>2075</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3503,13 @@
         <v>719</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3521,13 +3533,13 @@
         <v>719</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3554,13 @@
         <v>615</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3572,13 +3584,13 @@
         <v>615</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,7 +3611,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" s="7">
         <v>2</v>
@@ -3623,13 +3635,13 @@
         <v>1180</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3656,13 @@
         <v>700</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -3674,13 +3686,13 @@
         <v>700</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,7 +3713,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -3716,7 +3728,7 @@
         <v>10</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M53" s="7">
         <v>1</v>
@@ -3725,13 +3737,13 @@
         <v>576</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3764,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -3782,7 +3794,7 @@
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,7 +3850,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A22EE12-2DF9-4C16-B276-EBC16AD2F753}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B4EE54-F2A9-410F-A024-9E7039022521}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,7 +3886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,7 +3999,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4015,7 +4027,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,7 +4048,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4064,7 +4076,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,7 +4097,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4113,7 +4125,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,7 +4146,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4162,7 +4174,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,7 +4195,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4211,7 +4223,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,7 +4241,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>17</v>
@@ -4257,7 +4269,7 @@
         <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>17</v>
@@ -4281,7 +4293,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4309,7 +4321,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,7 +4342,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4358,7 +4370,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,7 +4391,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4407,7 +4419,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,7 +4440,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4456,7 +4468,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,7 +4489,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4505,7 +4517,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,7 +4538,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4554,7 +4566,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,7 +4638,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4656,7 +4668,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4683,13 @@
         <v>580</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4701,13 +4713,13 @@
         <v>580</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,7 +4740,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4758,7 +4770,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,7 +4791,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4809,7 +4821,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,7 +4842,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4860,7 +4872,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,13 +4887,13 @@
         <v>1328</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4905,13 +4917,13 @@
         <v>1328</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,13 +4938,13 @@
         <v>625</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4956,13 +4968,13 @@
         <v>625</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,7 +4995,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5013,7 +5025,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,7 +5046,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5064,7 +5076,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5091,13 @@
         <v>654</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5094,13 +5106,13 @@
         <v>645</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5109,13 +5121,13 @@
         <v>1299</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,7 +5148,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -5145,7 +5157,7 @@
         <v>1341</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>10</v>
@@ -5160,13 +5172,13 @@
         <v>1341</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,7 +5199,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -5196,13 +5208,13 @@
         <v>734</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -5211,13 +5223,13 @@
         <v>734</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,7 +5285,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5">
         <v>36</v>
@@ -5285,7 +5297,7 @@
         <v>654</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
@@ -5306,7 +5318,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -5315,13 +5327,13 @@
         <v>654</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,7 +5354,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5357,7 +5369,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5393,7 +5405,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5408,7 +5420,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5444,7 +5456,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5459,7 +5471,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -5489,7 +5501,7 @@
         <v>675</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>10</v>
@@ -5507,7 +5519,7 @@
         <v>15</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>17</v>
@@ -5519,7 +5531,7 @@
         <v>1598</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
@@ -5546,7 +5558,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -5561,7 +5573,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -5597,7 +5609,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5612,7 +5624,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5648,7 +5660,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -5663,7 +5675,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -5699,7 +5711,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -5714,7 +5726,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -5750,7 +5762,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -5765,7 +5777,7 @@
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -5801,7 +5813,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -5816,7 +5828,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -5846,7 +5858,7 @@
         <v>667</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
@@ -5867,7 +5879,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -5876,13 +5888,13 @@
         <v>667</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,13 +5962,13 @@
         <v>654</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -5971,7 +5983,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -5980,13 +5992,13 @@
         <v>654</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6001,13 +6013,13 @@
         <v>580</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -6022,7 +6034,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -6031,13 +6043,13 @@
         <v>580</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,23 +6070,23 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="M45" s="7">
         <v>0</v>
       </c>
@@ -6088,7 +6100,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,23 +6121,23 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="M46" s="7">
         <v>0</v>
       </c>
@@ -6139,7 +6151,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6166,13 @@
         <v>675</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -6169,13 +6181,13 @@
         <v>923</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -6184,13 +6196,13 @@
         <v>1598</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6217,13 @@
         <v>2000</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -6226,7 +6238,7 @@
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M48" s="7">
         <v>3</v>
@@ -6235,13 +6247,13 @@
         <v>1999</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6268,13 @@
         <v>625</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -6277,7 +6289,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -6286,13 +6298,13 @@
         <v>625</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,23 +6325,23 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="M50" s="7">
         <v>0</v>
       </c>
@@ -6343,7 +6355,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,23 +6376,23 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="M51" s="7">
         <v>0</v>
       </c>
@@ -6394,7 +6406,7 @@
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,13 +6421,13 @@
         <v>654</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -6424,13 +6436,13 @@
         <v>645</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M52" s="7">
         <v>2</v>
@@ -6439,13 +6451,13 @@
         <v>1299</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,7 +6478,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H53" s="7">
         <v>2</v>
@@ -6475,13 +6487,13 @@
         <v>1341</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -6490,13 +6502,13 @@
         <v>1341</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -6511,13 +6523,13 @@
         <v>667</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -6526,13 +6538,13 @@
         <v>734</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -6541,13 +6553,13 @@
         <v>1401</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,7 +6615,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -6622,7 +6634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8720D2BC-40AD-4A77-9ECF-6CF4BF1E51C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2957C2BB-0A56-4AAF-94BA-08D11161BE90}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6639,7 +6651,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6752,7 +6764,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6767,7 +6779,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6800,25 +6812,25 @@
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6827,7 +6839,7 @@
         <v>891</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>10</v>
@@ -6854,7 +6866,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6869,7 +6881,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6905,7 +6917,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6920,7 +6932,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6956,7 +6968,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6971,7 +6983,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7007,7 +7019,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7022,7 +7034,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7058,7 +7070,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7073,7 +7085,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7109,7 +7121,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7124,7 +7136,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -7160,7 +7172,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -7175,7 +7187,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -7211,7 +7223,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7226,7 +7238,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7262,7 +7274,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -7274,7 +7286,7 @@
         <v>15</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -7286,7 +7298,7 @@
         <v>676</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>10</v>
@@ -7313,7 +7325,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -7328,7 +7340,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -7447,7 +7459,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7498,7 +7510,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,7 +7540,7 @@
         <v>759</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>10</v>
@@ -7543,13 +7555,13 @@
         <v>759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,7 +7591,7 @@
         <v>604</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>10</v>
@@ -7594,13 +7606,13 @@
         <v>604</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,13 +7627,13 @@
         <v>727</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7645,13 +7657,13 @@
         <v>727</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7702,7 +7714,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7753,7 +7765,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,7 +7816,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7819,13 +7831,13 @@
         <v>670</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7849,13 +7861,13 @@
         <v>670</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7906,7 +7918,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7921,13 +7933,13 @@
         <v>768</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7951,13 +7963,13 @@
         <v>768</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,13 +7984,13 @@
         <v>790</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8002,13 +8014,13 @@
         <v>790</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8064,7 +8076,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5">
         <v>36</v>
@@ -8082,7 +8094,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8112,7 +8124,7 @@
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,7 +8145,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8163,7 +8175,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,7 +8196,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8214,7 +8226,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,7 +8247,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -8265,7 +8277,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8286,7 +8298,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8316,7 +8328,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8337,7 +8349,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -8346,13 +8358,13 @@
         <v>792</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -8361,13 +8373,13 @@
         <v>792</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8388,7 +8400,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8418,7 +8430,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8439,7 +8451,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -8469,7 +8481,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8490,7 +8502,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -8499,13 +8511,13 @@
         <v>536</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -8514,13 +8526,13 @@
         <v>536</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8541,7 +8553,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -8550,13 +8562,13 @@
         <v>706</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -8565,13 +8577,13 @@
         <v>705</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8589,7 +8601,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>17</v>
@@ -8601,13 +8613,13 @@
         <v>706</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -8616,13 +8628,13 @@
         <v>1254</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8643,7 +8655,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -8673,7 +8685,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8747,7 +8759,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -8762,7 +8774,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -8777,7 +8789,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8792,28 +8804,28 @@
         <v>891</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -8822,13 +8834,13 @@
         <v>891</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8849,7 +8861,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -8858,13 +8870,13 @@
         <v>759</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -8873,13 +8885,13 @@
         <v>759</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8900,7 +8912,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -8909,13 +8921,13 @@
         <v>604</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -8924,13 +8936,13 @@
         <v>604</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8945,13 +8957,13 @@
         <v>727</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -8966,7 +8978,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -8975,13 +8987,13 @@
         <v>727</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9002,7 +9014,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -9011,13 +9023,13 @@
         <v>792</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -9026,13 +9038,13 @@
         <v>792</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9053,7 +9065,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -9068,7 +9080,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -9083,7 +9095,7 @@
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9104,7 +9116,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -9119,7 +9131,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -9134,7 +9146,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9149,13 +9161,13 @@
         <v>670</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -9164,13 +9176,13 @@
         <v>536</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M51" s="7">
         <v>2</v>
@@ -9179,13 +9191,13 @@
         <v>1206</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -9206,7 +9218,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -9215,13 +9227,13 @@
         <v>705</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -9230,13 +9242,13 @@
         <v>705</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -9251,13 +9263,13 @@
         <v>1316</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H53" s="7">
         <v>2</v>
@@ -9266,13 +9278,13 @@
         <v>1381</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M53" s="7">
         <v>4</v>
@@ -9281,13 +9293,13 @@
         <v>2697</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -9302,13 +9314,13 @@
         <v>790</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -9323,7 +9335,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -9332,13 +9344,13 @@
         <v>790</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -9394,7 +9406,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -9413,7 +9425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF7D515-E3CA-429C-ACC2-8254D7EFCFA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE438453-2548-4732-9885-6387A5149E70}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9430,7 +9442,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10130,7 +10142,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -10145,7 +10157,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -10181,7 +10193,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -10196,7 +10208,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -10232,7 +10244,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -10247,7 +10259,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -10283,7 +10295,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -10298,7 +10310,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -10334,7 +10346,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -10349,7 +10361,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -10385,7 +10397,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -10400,7 +10412,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -10436,7 +10448,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -10451,7 +10463,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -10487,7 +10499,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -10502,7 +10514,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -10535,7 +10547,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>17</v>
@@ -10550,7 +10562,7 @@
         <v>15</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>17</v>
@@ -10565,7 +10577,7 @@
         <v>15</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>141</v>
+        <v>228</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>17</v>
@@ -10589,7 +10601,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -10604,7 +10616,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -10640,7 +10652,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -10655,7 +10667,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -10691,7 +10703,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -10706,7 +10718,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -10777,7 +10789,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5">
         <v>36</v>
@@ -10795,7 +10807,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -10825,7 +10837,7 @@
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10846,7 +10858,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -10876,7 +10888,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10897,7 +10909,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -10927,7 +10939,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10948,7 +10960,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -10978,7 +10990,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10999,7 +11011,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -11029,7 +11041,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11050,7 +11062,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -11059,7 +11071,7 @@
         <v>605</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
@@ -11074,7 +11086,7 @@
         <v>605</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
@@ -11101,7 +11113,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -11131,7 +11143,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11152,7 +11164,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -11182,7 +11194,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11203,7 +11215,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -11233,7 +11245,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11254,7 +11266,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -11284,7 +11296,7 @@
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11302,7 +11314,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>17</v>
@@ -11314,7 +11326,7 @@
         <v>843</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>10</v>
@@ -11329,7 +11341,7 @@
         <v>1618</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
@@ -11356,7 +11368,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -11386,7 +11398,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11475,7 +11487,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -11490,7 +11502,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11526,7 +11538,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -11541,7 +11553,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11577,7 +11589,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -11592,7 +11604,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -11628,7 +11640,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -11643,7 +11655,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11679,7 +11691,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -11694,7 +11706,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11724,7 +11736,7 @@
         <v>604</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>10</v>
@@ -11739,13 +11751,13 @@
         <v>605</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -11781,7 +11793,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -11796,7 +11808,7 @@
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -11832,7 +11844,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -11847,7 +11859,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -11862,7 +11874,7 @@
         <v>900</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>10</v>
@@ -11877,7 +11889,7 @@
         <v>852</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>10</v>
@@ -11892,13 +11904,13 @@
         <v>1752</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -11934,7 +11946,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -11949,7 +11961,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -11964,7 +11976,7 @@
         <v>775</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
@@ -11979,7 +11991,7 @@
         <v>843</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>10</v>
@@ -11994,13 +12006,13 @@
         <v>1618</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -12036,7 +12048,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -12051,7 +12063,7 @@
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -12107,7 +12119,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
